--- a/data/trans_dic/P55$amigo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,48</t>
+          <t>0,0; 9,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,65</t>
+          <t>0,0; 26,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 16,79</t>
+          <t>3,88; 17,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 13,81</t>
+          <t>2,63; 14,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>0,0; 7,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,86</t>
+          <t>0,0; 8,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 14,01</t>
+          <t>4,47; 14,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,32</t>
+          <t>1,75; 9,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 11,88</t>
+          <t>0,87; 12,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,26</t>
+          <t>0,0; 6,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,75</t>
+          <t>4,9; 12,61</t>
         </is>
       </c>
     </row>
@@ -1564,47 +1565,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,16</t>
+          <t>0,0; 6,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 4,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,09</t>
+          <t>1,09; 6,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,6</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,18</t>
+          <t>0,65; 6,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,63</t>
+          <t>2,73; 6,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,62</t>
+          <t>0,76; 4,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,69</t>
+          <t>2,68; 5,71</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,46</t>
+          <t>0,0; 4,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,24</t>
+          <t>0,72; 10,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,01</t>
+          <t>2,25; 7,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,03</t>
+          <t>0,91; 5,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,06</t>
+          <t>0,35; 2,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,4</t>
+          <t>1,29; 5,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,32</t>
+          <t>3,73; 7,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,99</t>
+          <t>1,01; 4,18</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,95</t>
+          <t>0,76; 4,36</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,27</t>
+          <t>0,92; 4,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,74</t>
+          <t>3,6; 6,78</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda sus amistades cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3350</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6089</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2364</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>10504</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3969</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12003</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1868</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1958; 8881</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1782; 9886</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5051</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7194</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3262; 10259</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1912; 10560</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1006; 14142</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7933</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6050; 15568</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3136</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4865</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11075</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5755</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>14211</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5139</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4723</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4492</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1161; 7340</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6592</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 7704</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1204; 11209</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6959; 16970</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6660</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1053; 8729</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2106; 12582</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9715; 20656</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4411</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7551</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>17165</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>7445</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7599</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>8119</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>24716</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6085</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1056; 14792</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 4488</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3529; 12456</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2104; 11637</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>992; 7624</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>3454; 15713</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>12238; 24564</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3620; 14944</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3229; 18581</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3582; 16351</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>17464; 32884</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>